--- a/biology/Médecine/Pierre_Micheletti/Pierre_Micheletti.xlsx
+++ b/biology/Médecine/Pierre_Micheletti/Pierre_Micheletti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Micheletti est un médecin, universitaire, et écrivain français, né le 28 juillet 1958 à Oran[1]. Spécialiste des questions humanitaires internationales (principalement en santé mais aussi sur les enjeux environnementaux), il travaille depuis près de trente ans dans l’humanitaire (Médecins du Monde, Action contre la faim) et a publié de nombreux ouvrages consacrés à ces sujets. Il est enseignant à l'Institut d'Études Politiques et à la faculté de médecine de Grenoble, professeur associé au service temporaire (PAST), Président d'Action Contre la Faim, membre du Conseil National de la Santé Mentale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Micheletti est un médecin, universitaire, et écrivain français, né le 28 juillet 1958 à Oran. Spécialiste des questions humanitaires internationales (principalement en santé mais aussi sur les enjeux environnementaux), il travaille depuis près de trente ans dans l’humanitaire (Médecins du Monde, Action contre la faim) et a publié de nombreux ouvrages consacrés à ces sujets. Il est enseignant à l'Institut d'Études Politiques et à la faculté de médecine de Grenoble, professeur associé au service temporaire (PAST), Président d'Action Contre la Faim, membre du Conseil National de la Santé Mentale.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Micheletti, né le 28 juillet 1958, est un médecin français engagé dans l'humanitaire. Médecin et titulaire du diplôme national de santé publique (Rennes 2000), Pierre Micheletti entreprend ses premières expériences à l'étranger entre 1985 et 1987, durant son internat en médecine générale, au cours duquel il se rend en Guyane et en Chine[2]. En 1987, il rejoint Médecins du Monde en tant que chef de mission au Guatémala[2]. Il s'investit alors dans des missions humanitaires à travers le monde, notamment en Afrique — Darfour, Rwanda, République du Congo… — mais aussi en Asie — Timor, Birmanie… — au Moyen-Orient et Maghreb et en Amérique Latine.
-Directeur des programmes de Médecins du monde en 1996, il devient membre du bureau en 2003 avant d'être élu à la présidence de Médecins du Monde en  2006[3],[4], responsabilité qu'il exercera jusqu'en 2009. Depuis 2009, il est professeur associé à l'Institut d'études politiques de Grenoble.
-Il est élu au conseil d'administration d'Action contre la faim en 2014, devient vice-président en 2015, puis succède à Thomas Ribémont en qualité de Président d'Action contre la Faim en juin 2019[5]. Il est également président de la Commission santé de l'UNIOPSS (Union nationale inter fédérale des œuvres et organismes privés sanitaires et sociaux).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Micheletti, né le 28 juillet 1958, est un médecin français engagé dans l'humanitaire. Médecin et titulaire du diplôme national de santé publique (Rennes 2000), Pierre Micheletti entreprend ses premières expériences à l'étranger entre 1985 et 1987, durant son internat en médecine générale, au cours duquel il se rend en Guyane et en Chine. En 1987, il rejoint Médecins du Monde en tant que chef de mission au Guatémala. Il s'investit alors dans des missions humanitaires à travers le monde, notamment en Afrique — Darfour, Rwanda, République du Congo… — mais aussi en Asie — Timor, Birmanie… — au Moyen-Orient et Maghreb et en Amérique Latine.
+Directeur des programmes de Médecins du monde en 1996, il devient membre du bureau en 2003 avant d'être élu à la présidence de Médecins du Monde en  2006 responsabilité qu'il exercera jusqu'en 2009. Depuis 2009, il est professeur associé à l'Institut d'études politiques de Grenoble.
+Il est élu au conseil d'administration d'Action contre la faim en 2014, devient vice-président en 2015, puis succède à Thomas Ribémont en qualité de Président d'Action contre la Faim en juin 2019. Il est également président de la Commission santé de l'UNIOPSS (Union nationale inter fédérale des œuvres et organismes privés sanitaires et sociaux).
 </t>
         </is>
       </c>
